--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,17 +57,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -87,7 +87,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau3" displayName="Tableau3" ref="A1:K1048571" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Tableau3" headerRowCount="1" headerRowDxfId="0" id="1" name="Tableau3" ref="A1:K1048571" totalsRowShown="0">
   <autoFilter ref="A1:K1048571"/>
   <tableColumns count="11">
     <tableColumn id="1" name="k"/>
@@ -175,7 +175,7 @@
     <tableColumn id="10" name="execution time (s)"/>
     <tableColumn id="11" name="execution_time / cities"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
@@ -454,17 +454,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="4.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="24" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="4.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="7.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="16.85546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="21.7109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="17.7109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13.5703125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="16.7109375"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -839,8 +839,323 @@
         <v>0.07505295493386009</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2976.91</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.17060375213623</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4700548865578391</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2455.07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.06842470169067</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.915311336517334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2864.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.05058336257935</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.368234851143577</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2455.07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.930765628814697</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9027968753467907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>200</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>39</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8346.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>98</v>
+      </c>
+      <c r="J15" t="n">
+        <v>40.29544472694397</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.033216531460102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>500</v>
+      </c>
+      <c r="C16" t="n">
+        <v>800</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>39</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6315.819999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>495</v>
+      </c>
+      <c r="J16" t="n">
+        <v>201.6033191680908</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.169315876104893</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>39</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6151.13</v>
+      </c>
+      <c r="I17" t="n">
+        <v>988</v>
+      </c>
+      <c r="J17" t="n">
+        <v>402.3107349872589</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.31565987146818</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>500</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5532.150000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>941</v>
+      </c>
+      <c r="J18" t="n">
+        <v>380.2496461868286</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.749990927867401</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>800</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>39</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5346.329999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>867</v>
+      </c>
+      <c r="J19" t="n">
+        <v>371.9210474491119</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.536437114079794</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
